--- a/Review_Phil.xlsx
+++ b/Review_Phil.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\GitHub\AR-Education\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="232">
   <si>
     <t>Title</t>
   </si>
@@ -465,13 +463,268 @@
   </si>
   <si>
     <t>Benefit in one Sentence</t>
+  </si>
+  <si>
+    <t>"most students think that the HELLO is easy to use"</t>
+  </si>
+  <si>
+    <t>"can not improve writing ability"</t>
+  </si>
+  <si>
+    <t>"can improve listening, speaking and reading ability"</t>
+  </si>
+  <si>
+    <t>"can increase motivation to learn"</t>
+  </si>
+  <si>
+    <t>"would like to use the HELLO in other courses"</t>
+  </si>
+  <si>
+    <t>Easy to use</t>
+  </si>
+  <si>
+    <t>Increased motivation</t>
+  </si>
+  <si>
+    <t>Improves skills...</t>
+  </si>
+  <si>
+    <t>... but not all</t>
+  </si>
+  <si>
+    <t>increased after-class-learning</t>
+  </si>
+  <si>
+    <t>"most students like to use the HELLO to learn after class"</t>
+  </si>
+  <si>
+    <t>the system is appreciated</t>
+  </si>
+  <si>
+    <t>"These data might suggest that scoring is more variable and difficult on the cadaver than on the simulator model or, alternatively, trainees believe their skills are better than they actually are"</t>
+  </si>
+  <si>
+    <t>"the simulator is able to replicate difficulties of dissection as seen in the cadaver model"</t>
+  </si>
+  <si>
+    <t>Replication of real-world problems</t>
+  </si>
+  <si>
+    <t>"that simulator training followed by cadaver training can provide optimal integration of simulators into the learn- ing curve"</t>
+  </si>
+  <si>
+    <t>Improved learning curve in combination</t>
+  </si>
+  <si>
+    <t>HELLO!</t>
+  </si>
+  <si>
+    <t>"tests taken by the experimental group in all the learning activities were significantly better than those of the control group"</t>
+  </si>
+  <si>
+    <t>Improved learning results</t>
+  </si>
+  <si>
+    <t>"a tool based on physical blocks, since when children can manipulate objects the subject becomes more attractive and meaningful to them"</t>
+  </si>
+  <si>
+    <t>Compination real+virtual=increased attention</t>
+  </si>
+  <si>
+    <t>"can increase the students’ motivation"</t>
+  </si>
+  <si>
+    <t>"did not need any training to use the system"</t>
+  </si>
+  <si>
+    <t>"the system is already satisfactory from the users point of view"</t>
+  </si>
+  <si>
+    <t>Easy and fun to use</t>
+  </si>
+  <si>
+    <t>"emphasize how engaged students become simply by using similar tools [mobile phones] to learn"</t>
+  </si>
+  <si>
+    <t>"The technology became a magnet and aroused a heightened interest in learning"</t>
+  </si>
+  <si>
+    <t>"increased their attention to learning"</t>
+  </si>
+  <si>
+    <t>increased attention</t>
+  </si>
+  <si>
+    <t>no gender specific outcome</t>
+  </si>
+  <si>
+    <t>"there is no gender difference on learning performance"</t>
+  </si>
+  <si>
+    <t>"regardless of learner gaming skills"</t>
+  </si>
+  <si>
+    <t>Gaming Skills not required</t>
+  </si>
+  <si>
+    <t>"can enhance learner motivation"</t>
+  </si>
+  <si>
+    <t>"More research to be done"</t>
+  </si>
+  <si>
+    <t>"simulation environments could support students’ scientific inquiry learning processes, such as interpreting results, and improving knowledge integration"</t>
+  </si>
+  <si>
+    <t>Improves skills</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>"enhanced intrinsic motivation towards the self- learning process"</t>
+  </si>
+  <si>
+    <t>"interaction cost"</t>
+  </si>
+  <si>
+    <t>"lead to an increased ability to retain long term memories"</t>
+  </si>
+  <si>
+    <t>"had higher motivation"</t>
+  </si>
+  <si>
+    <t>"had higher [...] and degree of concentration"</t>
+  </si>
+  <si>
+    <t>"all three types of physical activity within the use of the AR learning system, have significantly positive progress in their academic achievement between the beginning and the end of their studies."</t>
+  </si>
+  <si>
+    <t>"regardless to the types of AR physical activity students engaged in, they all obtained the equally positive effect on their academic achievement progress."</t>
+  </si>
+  <si>
+    <t>All types of AR are working</t>
+  </si>
+  <si>
+    <t>"students showed stronger preferences (all means &gt; 3) towards the AR learning environments including all seven subscales, Ease of Use, Challenge, Rewards, Situated Learning, Collaboration, Competition and Movement."</t>
+  </si>
+  <si>
+    <t>BÄM! Alles gut, besser, super!</t>
+  </si>
+  <si>
+    <t>"The augmented reality technology specifically shows even better results than virtual reality or PDF3D although differences are small but still quite relevant compared to those obtained from the students belonging to the control group."</t>
+  </si>
+  <si>
+    <t>AR better than VR</t>
+  </si>
+  <si>
+    <t>Nicht sehr genau</t>
+  </si>
+  <si>
+    <t>"Participant teachers expressed a positive opinion with the experience of using AR contents, and thought that it really had a positive impact on the class."</t>
+  </si>
+  <si>
+    <t>Aber nicht statistisch signifikant</t>
+  </si>
+  <si>
+    <t>"students found Realitat3 easy and natural to use."</t>
+  </si>
+  <si>
+    <t>"as students recognize that it is easier to follow the lessons taught in this way"</t>
+  </si>
+  <si>
+    <t>Improved learning efficiency</t>
+  </si>
+  <si>
+    <t>" reached a satisfactory motivation level."</t>
+  </si>
+  <si>
+    <t>"positive performance"</t>
+  </si>
+  <si>
+    <t>"usability results extracted from questionnaires were very positive"</t>
+  </si>
+  <si>
+    <t>Good usability</t>
+  </si>
+  <si>
+    <t>"Technology suitability as a new tool to be used in learning processes"</t>
+  </si>
+  <si>
+    <t>Technology works</t>
+  </si>
+  <si>
+    <t>"Students have been satisfied and motivated by these new methodologies, in all cases"</t>
+  </si>
+  <si>
+    <t>"AR technology can help to improve student’s academic performance"</t>
+  </si>
+  <si>
+    <t>"the game-like nature of the system resulted in participants competing with each other on achieving higher summary feedback scores."</t>
+  </si>
+  <si>
+    <t>Gamification helps to motivate</t>
+  </si>
+  <si>
+    <t>"All participants believed that the system would be helpful for starting to learn playing piano, and all participants enjoyed using the system."</t>
+  </si>
+  <si>
+    <t>HELLO</t>
+  </si>
+  <si>
+    <t>"HELLO is easy to use"</t>
+  </si>
+  <si>
+    <t>"can improve listening, speaking and reading ability."</t>
+  </si>
+  <si>
+    <t>"like to use the HELLO to learn after class."</t>
+  </si>
+  <si>
+    <t>after class learning</t>
+  </si>
+  <si>
+    <t>"obtain a general positive response and students show great interest in the application of AR-based learning system in class."</t>
+  </si>
+  <si>
+    <t>"students tested admit that the experiment displayed using Augmented Reality in their physics class stimulates their curiosity, which encourages them to explore deeply into the subject."</t>
+  </si>
+  <si>
+    <t>"prefer AR-based instructional system to help them study to the traditional classroom teaching method"</t>
+  </si>
+  <si>
+    <t>"that they were not absent of mind during the class."</t>
+  </si>
+  <si>
+    <t>Increased concentration</t>
+  </si>
+  <si>
+    <t>"enables students to achieve better learning achievements and to exhibit excellent skill performance"</t>
+  </si>
+  <si>
+    <t>"Students using the MDAS were significantly more active and engaged in interactions with the teacher compared to those students using traditional tools"</t>
+  </si>
+  <si>
+    <t>Improved active learning</t>
+  </si>
+  <si>
+    <t>"enhanced the effectiveness of learning about astronomical observation and the performance of astronomical observation skills. In addition, the introduction of augmented reality to construct a human–computer-field experience sub- stantially increased learner motivation and had a stronger effect on the retention of learner interest in astronomical observation compared to traditional teaching scenarios."</t>
+  </si>
+  <si>
+    <t>"Potential tissue damage caused by the needle [see Fig. 7(b)] was lower in the Overlay group for all insertions, and it remained significantly lower when the group performed the freehand insertion."</t>
+  </si>
+  <si>
+    <t>"Success rate [see Fig. 7(c)] was higher in the Overlay group when receiving additional guidance for the first six insertions, and remained higher during the freehand insertions."</t>
+  </si>
+  <si>
+    <t>AR + Real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +744,39 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -533,15 +819,45 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,8 +871,48 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="31">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,7 +971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +1006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -835,24 +1191,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="57" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -906,356 +1262,408 @@
       <c r="F2" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="8">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="8">
+        <v>253</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="9">
+        <v>253</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="9">
+        <v>254</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11">
+        <v>525</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="H16" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18">
+        <v>894</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19">
+        <v>894</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>143</v>
@@ -1266,356 +1674,426 @@
       <c r="F20" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="H20" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="12">
+        <v>647</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="H21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="12">
+        <v>649</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="9">
+        <v>649</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23">
+        <v>56</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="H24" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26">
+        <v>113</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="H27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28">
+        <v>173</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29">
+        <v>173</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32">
+        <v>249</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33">
+        <v>249</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34">
+        <v>249</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35">
+        <v>363</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>145</v>
@@ -1627,15 +2105,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>46</v>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>145</v>
@@ -1647,335 +2125,335 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>53</v>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="2" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="2" t="s">
+    <row r="53" spans="1:11">
+      <c r="A53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>62</v>
+    <row r="55" spans="1:11">
+      <c r="A55" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>144</v>
@@ -1984,15 +2462,21 @@
         <v>145</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>128</v>
@@ -2004,51 +2488,738 @@
         <v>145</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57">
+        <v>35</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58">
+        <v>37</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I59">
+        <v>37</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I62">
+        <v>77</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63">
+        <v>77</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="64" spans="1:11">
+      <c r="A64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66">
+        <v>9</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I67">
+        <v>9</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I72">
+        <v>87</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="3"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I73">
+        <v>87</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I74">
+        <v>87</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="3"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I75">
+        <v>87</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I77">
+        <v>187</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="H78" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I78">
+        <v>187</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I79">
+        <v>187</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I80">
+        <v>2035</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I81">
+        <v>2035</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="D90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="91" spans="1:11">
+      <c r="A91" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="D91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Review_Phil.xlsx
+++ b/Review_Phil.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="241">
   <si>
     <t>Title</t>
   </si>
@@ -718,6 +718,33 @@
   </si>
   <si>
     <t>AR + Real</t>
+  </si>
+  <si>
+    <t>"AR is able to compensate for the mental and cognitive gaps between individual differences of information retrieval capacity and the task difficulty imposed on individuals. Consequently, AR eases information retrieval by integrating the task of searching information and the task of the actual assembly."</t>
+  </si>
+  <si>
+    <t>"AR appears to have an advantage in reduc- ing error assembly when compared with the assembly manual."</t>
+  </si>
+  <si>
+    <t>"average ratings of both frustration level and temporal demand were higher using the manual"</t>
+  </si>
+  <si>
+    <t>"Trainees with AR training could remember or recollect more assembly clues that were memorized in the former training task than those trained in the manual."</t>
+  </si>
+  <si>
+    <t>Modelling + Skills?</t>
+  </si>
+  <si>
+    <t>"The medical students wearing AR goggles were able to treat tension pneumothoraces using the human cadaver models more accurately than the students relying solely on recall from the lecture"</t>
+  </si>
+  <si>
+    <t>"also helped them construct knowledge and produce meaningful essays"</t>
+  </si>
+  <si>
+    <t>Schon mal gelesen?!</t>
+  </si>
+  <si>
+    <t>"The retention scores show improved learning with YouMove, as performance is maintained on the retention tests"</t>
   </si>
 </sst>
 </file>
@@ -857,7 +884,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,11 +903,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1183,7 +1212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1191,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1204,7 +1233,7 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="57" customWidth="1"/>
+    <col min="8" max="8" width="57" style="14" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1230,7 +1259,7 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1645,7 +1674,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="13" t="s">
         <v>175</v>
       </c>
       <c r="I19">
@@ -1674,13 +1703,13 @@
       <c r="F20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>647</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1691,14 +1720,14 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>649</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12" t="s">
+      <c r="J21" s="10"/>
+      <c r="K21" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3072,76 +3101,79 @@
       <c r="F84" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="G84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I84">
+        <v>447</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>138</v>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="H85" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="I85">
+        <v>448</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>137</v>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="H86" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I86">
+        <v>448</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>142</v>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="H87" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I87">
+        <v>450</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>144</v>
@@ -3152,13 +3184,16 @@
       <c r="F88" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="H88" s="14" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>128</v>
@@ -3170,18 +3205,27 @@
         <v>145</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I89">
+        <v>983</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="3" t="s">
-        <v>65</v>
+      <c r="A90" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>144</v>
@@ -3190,15 +3234,18 @@
         <v>145</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>128</v>
@@ -3210,7 +3257,94 @@
         <v>145</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I94">
+        <v>318</v>
+      </c>
+      <c r="J94" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
